--- a/output/between_species_wheat-rice/cluster_deg_overlap_statistics.xlsx
+++ b/output/between_species_wheat-rice/cluster_deg_overlap_statistics.xlsx
@@ -98,12 +98,12 @@
     <t>epidermis</t>
   </si>
   <si>
+    <t>mature epidermis</t>
+  </si>
+  <si>
     <t>metaxylem</t>
   </si>
   <si>
-    <t>near root hair</t>
-  </si>
-  <si>
     <t>root cap</t>
   </si>
   <si>
@@ -194,6 +194,30 @@
     <t>ORTHO905GF000027,ORTHO905GF000214,ORTHO905GF000313,ORTHO905GF000545,ORTHO905GF000576,ORTHO905GF000638,ORTHO905GF000639,ORTHO905GF001200,ORTHO905GF002851,ORTHO905GF007961,ORTHO905GF018675</t>
   </si>
   <si>
+    <t>ORTHO905GF000093,ORTHO905GF000125,ORTHO905GF000465,ORTHO905GF000545,ORTHO905GF001012,ORTHO905GF002613,ORTHO905GF003377,ORTHO905GF004829,ORTHO905GF008771,ORTHO905GF014044,ORTHO905GF014637</t>
+  </si>
+  <si>
+    <t>ORTHO905GF000027,ORTHO905GF000214,ORTHO905GF000528,ORTHO905GF006681</t>
+  </si>
+  <si>
+    <t>ORTHO905GF000043,ORTHO905GF000465,ORTHO905GF000545,ORTHO905GF000627,ORTHO905GF002613,ORTHO905GF003037,ORTHO905GF003377,ORTHO905GF005893,ORTHO905GF009932,ORTHO905GF013360,ORTHO905GF014048,ORTHO905GF014637,ORTHO905GF014733,ORTHO905GF016926,ORTHO905GF018757</t>
+  </si>
+  <si>
+    <t>ORTHO905GF000465,ORTHO905GF000545,ORTHO905GF001253,ORTHO905GF002531,ORTHO905GF003037,ORTHO905GF017305</t>
+  </si>
+  <si>
+    <t>ORTHO905GF000043,ORTHO905GF000465,ORTHO905GF000545</t>
+  </si>
+  <si>
+    <t>ORTHO905GF000043,ORTHO905GF003037,ORTHO905GF004545,ORTHO905GF005745,ORTHO905GF006606,ORTHO905GF014655</t>
+  </si>
+  <si>
+    <t>ORTHO905GF003600</t>
+  </si>
+  <si>
+    <t>ORTHO905GF000027,ORTHO905GF000031,ORTHO905GF000034,ORTHO905GF000093,ORTHO905GF000125,ORTHO905GF000214,ORTHO905GF000465,ORTHO905GF000528,ORTHO905GF000545,ORTHO905GF001696,ORTHO905GF002613,ORTHO905GF004919,ORTHO905GF005373,ORTHO905GF017191,ORTHO905GF017204</t>
+  </si>
+  <si>
     <t>ORTHO905GF000545,ORTHO905GF002862</t>
   </si>
   <si>
@@ -227,30 +251,6 @@
     <t>ORTHO905GF000303,ORTHO905GF000313,ORTHO905GF000545,ORTHO905GF000638,ORTHO905GF000851,ORTHO905GF000969,ORTHO905GF001200,ORTHO905GF002851,ORTHO905GF002862,ORTHO905GF002972,ORTHO905GF003247,ORTHO905GF003358,ORTHO905GF007961,ORTHO905GF013097,ORTHO905GF018675</t>
   </si>
   <si>
-    <t>ORTHO905GF000093,ORTHO905GF000125,ORTHO905GF000465,ORTHO905GF000545,ORTHO905GF001012,ORTHO905GF002613,ORTHO905GF003377,ORTHO905GF004829,ORTHO905GF008771,ORTHO905GF014044,ORTHO905GF014637</t>
-  </si>
-  <si>
-    <t>ORTHO905GF000027,ORTHO905GF000214,ORTHO905GF000528,ORTHO905GF006681</t>
-  </si>
-  <si>
-    <t>ORTHO905GF000043,ORTHO905GF000465,ORTHO905GF000545,ORTHO905GF000627,ORTHO905GF002613,ORTHO905GF003037,ORTHO905GF003377,ORTHO905GF005893,ORTHO905GF009932,ORTHO905GF013360,ORTHO905GF014048,ORTHO905GF014637,ORTHO905GF014733,ORTHO905GF016926,ORTHO905GF018757</t>
-  </si>
-  <si>
-    <t>ORTHO905GF000465,ORTHO905GF000545,ORTHO905GF001253,ORTHO905GF002531,ORTHO905GF003037,ORTHO905GF017305</t>
-  </si>
-  <si>
-    <t>ORTHO905GF000043,ORTHO905GF000465,ORTHO905GF000545</t>
-  </si>
-  <si>
-    <t>ORTHO905GF000043,ORTHO905GF003037,ORTHO905GF004545,ORTHO905GF005745,ORTHO905GF006606,ORTHO905GF014655</t>
-  </si>
-  <si>
-    <t>ORTHO905GF003600</t>
-  </si>
-  <si>
-    <t>ORTHO905GF000027,ORTHO905GF000031,ORTHO905GF000034,ORTHO905GF000093,ORTHO905GF000125,ORTHO905GF000214,ORTHO905GF000465,ORTHO905GF000528,ORTHO905GF000545,ORTHO905GF001696,ORTHO905GF002613,ORTHO905GF004919,ORTHO905GF005373,ORTHO905GF017191,ORTHO905GF017204</t>
-  </si>
-  <si>
     <t>ORTHO905GF000093,ORTHO905GF000125,ORTHO905GF002862</t>
   </si>
   <si>
@@ -419,6 +419,30 @@
     <t>TraesCS1A03G0193000,TraesCS1A03G0502500,TraesCS1A03G0502600,TraesCS1B03G0260500,TraesCS1B03G0260800,TraesCS1B03G0263100,TraesCS1B03G0574600,TraesCS1D03G0186800,TraesCS1D03G0485700,TraesCS1D03G0486300,TraesCS1D03G0486700,TraesCS2A03G0364600,TraesCS3A03G0209900,TraesCS3A03G0294100,TraesCS3A03G0935200,TraesCS3A03G1018500,TraesCS3A03G1018700,TraesCS3B03G0012900,TraesCS3B03G1165300,TraesCS3D03G0008300,TraesCS4A03G0214400,TraesCS4B03G0772900,TraesCS4D03G0492800,TraesCS4D03G0699100,TraesCS6A03G0329800,TraesCS6B03G0425000,TraesCS7A03G0821400,TraesCS7B03G0680100,TraesCS7D03G0401600,TraesCS7D03G0805700,TraesCSU03G0019900,TraesCSU03G0085400</t>
   </si>
   <si>
+    <t>TraesCS1B03G0651500,TraesCS1B03G1166600,TraesCS1D03G0538300,TraesCS2A03G0303700,TraesCS2B03G0423400,TraesCS2B03G0731200,TraesCS2B03G1083100,TraesCS2D03G0321600,TraesCS4A03G0065100,TraesCS4B03G0721600,TraesCS4B03G0721800,TraesCS4D03G0642600,TraesCS6A03G0967400,TraesCS6A03G0967600,TraesCS6B03G1184200,TraesCS6B03G1184300,TraesCS6D03G0848200,TraesCS7B03G0299800,TraesCS7B03G0801500,TraesCS7D03G0923300,TraesCSU03G0047200</t>
+  </si>
+  <si>
+    <t>TraesCS1A03G0193000,TraesCS1B03G0260800,TraesCS1D03G0487600,TraesCS3B03G1165300,TraesCS3B03G1165500,TraesCS3D03G0946200,TraesCS6A03G1026500,TraesCS6B03G1265400,TraesCS6D03G0903900,TraesCS7A03G0214300</t>
+  </si>
+  <si>
+    <t>TraesCS1B03G0651500,TraesCS1B03G1166600,TraesCS1D03G0538300,TraesCS1D03G0951700,TraesCS2A03G0462100,TraesCS2A03G0821300,TraesCS2A03G0979000,TraesCS2B03G0582100,TraesCS2D03G0468100,TraesCS3A03G0365400,TraesCS3A03G0552600,TraesCS3B03G0050900,TraesCS3B03G0439100,TraesCS3B03G0636500,TraesCS3B03G1515400,TraesCS3D03G0040200,TraesCS3D03G1192800,TraesCS5B03G0106800,TraesCS6B03G1029600,TraesCS6B03G1184300,TraesCS7A03G0476000,TraesCS7A03G0484900,TraesCS7A03G0529100,TraesCS7B03G0299800,TraesCS7D03G0460400,TraesCS7D03G0468700</t>
+  </si>
+  <si>
+    <t>TraesCS1A03G0117100,TraesCS1B03G0155900,TraesCS1D03G0105400,TraesCS3D03G1192600,TraesCS5A03G0479300,TraesCS6A03G0966200,TraesCS6B03G1181300,TraesCS6B03G1250200,TraesCS6D03G0894200,TraesCS7A03G0475600,TraesCS7B03G0675100</t>
+  </si>
+  <si>
+    <t>TraesCS1A03G0313300,TraesCS1B03G0263100,TraesCS1B03G0397800,TraesCS1D03G0186800,TraesCS1D03G0304200,TraesCS3A03G0388700,TraesCS6B03G0808900,TraesCS6D03G0557600</t>
+  </si>
+  <si>
+    <t>TraesCS1A03G0190000,TraesCS1A03G0623200,TraesCS1B03G0257100,TraesCS1B03G0711800,TraesCS1D03G0584800,TraesCS4A03G0042300,TraesCS4B03G0741800,TraesCS4D03G0661400,TraesCS7A03G0268700,TraesCS7A03G0475600,TraesCS7A03G1132500,TraesCS7B03G0990200,TraesCS7D03G0245800,TraesCS7D03G0539900</t>
+  </si>
+  <si>
+    <t>TraesCS1A03G0531400</t>
+  </si>
+  <si>
+    <t>TraesCS1A03G0193000,TraesCS1A03G0502500,TraesCS1A03G0502600,TraesCS1A03G0558900,TraesCS1A03G0954900,TraesCS1B03G0260500,TraesCS1B03G0260800,TraesCS1B03G0263100,TraesCS1B03G0574600,TraesCS1B03G0651500,TraesCS1D03G0186800,TraesCS1D03G0485700,TraesCS1D03G0486300,TraesCS1D03G0486700,TraesCS1D03G0538300,TraesCS1D03G0931100,TraesCS2B03G0731200,TraesCS2D03G0347500,TraesCS3A03G0294100,TraesCS3A03G1018500,TraesCS3A03G1018700,TraesCS3B03G0309700,TraesCS3B03G1165300,TraesCS4A03G0657600,TraesCS4B03G0140700,TraesCS4B03G0647100,TraesCS4D03G0118100,TraesCS4D03G0699100,TraesCS5D03G0992800,TraesCS6A03G0329800,TraesCS6B03G0425000,TraesCS6B03G0749500,TraesCS6B03G0808900,TraesCS7A03G0214300,TraesCSU03G0047200,TraesCSU03G0085400</t>
+  </si>
+  <si>
     <t>TraesCS5A03G0684700,TraesCS5B03G0722200,TraesCS5D03G0654200,TraesCS6A03G0967400,TraesCS6A03G0967600,TraesCS6B03G1184200,TraesCS6B03G1184300,TraesCS6D03G0848200</t>
   </si>
   <si>
@@ -452,30 +476,6 @@
     <t>TraesCS1A03G0062800,TraesCS1B03G0066500,TraesCS1B03G0263100,TraesCS1D03G0049400,TraesCS1D03G0186800,TraesCS2A03G0364600,TraesCS2A03G0734000,TraesCS2B03G1399100,TraesCS3A03G0209900,TraesCS3A03G0935200,TraesCS3B03G0012900,TraesCS3B03G1137000,TraesCS3D03G0008300,TraesCS3D03G0921200,TraesCS4B03G0772900,TraesCS5A03G0388600,TraesCS5A03G0684700,TraesCS5A03G1080200,TraesCS5A03G1115100,TraesCS5B03G0387000,TraesCS5B03G1183000,TraesCS5D03G0377000,TraesCS5D03G1067600,TraesCS7A03G0446200,TraesCS7D03G0401600,TraesCS7D03G0430200,TraesCSU03G0019900</t>
   </si>
   <si>
-    <t>TraesCS1B03G0651500,TraesCS1B03G1166600,TraesCS1D03G0538300,TraesCS2A03G0303700,TraesCS2B03G0423400,TraesCS2B03G0731200,TraesCS2B03G1083100,TraesCS2D03G0321600,TraesCS4A03G0065100,TraesCS4B03G0721600,TraesCS4B03G0721800,TraesCS4D03G0642600,TraesCS6A03G0967400,TraesCS6A03G0967600,TraesCS6B03G1184200,TraesCS6B03G1184300,TraesCS6D03G0848200,TraesCS7B03G0299800,TraesCS7B03G0801500,TraesCS7D03G0923300,TraesCSU03G0047200</t>
-  </si>
-  <si>
-    <t>TraesCS1A03G0193000,TraesCS1B03G0260800,TraesCS1D03G0487600,TraesCS3B03G1165300,TraesCS3B03G1165500,TraesCS3D03G0946200,TraesCS6A03G1026500,TraesCS6B03G1265400,TraesCS6D03G0903900,TraesCS7A03G0214300</t>
-  </si>
-  <si>
-    <t>TraesCS1B03G0651500,TraesCS1B03G1166600,TraesCS1D03G0538300,TraesCS1D03G0951700,TraesCS2A03G0462100,TraesCS2A03G0821300,TraesCS2A03G0979000,TraesCS2B03G0582100,TraesCS2D03G0468100,TraesCS3A03G0365400,TraesCS3A03G0552600,TraesCS3B03G0050900,TraesCS3B03G0439100,TraesCS3B03G0636500,TraesCS3B03G1515400,TraesCS3D03G0040200,TraesCS3D03G1192800,TraesCS5B03G0106800,TraesCS6B03G1029600,TraesCS6B03G1184300,TraesCS7A03G0476000,TraesCS7A03G0484900,TraesCS7A03G0529100,TraesCS7B03G0299800,TraesCS7D03G0460400,TraesCS7D03G0468700</t>
-  </si>
-  <si>
-    <t>TraesCS1A03G0117100,TraesCS1B03G0155900,TraesCS1D03G0105400,TraesCS3D03G1192600,TraesCS5A03G0479300,TraesCS6A03G0966200,TraesCS6B03G1181300,TraesCS6B03G1250200,TraesCS6D03G0894200,TraesCS7A03G0475600,TraesCS7B03G0675100</t>
-  </si>
-  <si>
-    <t>TraesCS1A03G0313300,TraesCS1B03G0263100,TraesCS1B03G0397800,TraesCS1D03G0186800,TraesCS1D03G0304200,TraesCS3A03G0388700,TraesCS6B03G0808900,TraesCS6D03G0557600</t>
-  </si>
-  <si>
-    <t>TraesCS1A03G0190000,TraesCS1A03G0623200,TraesCS1B03G0257100,TraesCS1B03G0711800,TraesCS1D03G0584800,TraesCS4A03G0042300,TraesCS4B03G0741800,TraesCS4D03G0661400,TraesCS7A03G0268700,TraesCS7A03G0475600,TraesCS7A03G1132500,TraesCS7B03G0990200,TraesCS7D03G0245800,TraesCS7D03G0539900</t>
-  </si>
-  <si>
-    <t>TraesCS1A03G0531400</t>
-  </si>
-  <si>
-    <t>TraesCS1A03G0193000,TraesCS1A03G0502500,TraesCS1A03G0502600,TraesCS1A03G0558900,TraesCS1A03G0954900,TraesCS1B03G0260500,TraesCS1B03G0260800,TraesCS1B03G0263100,TraesCS1B03G0574600,TraesCS1B03G0651500,TraesCS1D03G0186800,TraesCS1D03G0485700,TraesCS1D03G0486300,TraesCS1D03G0486700,TraesCS1D03G0538300,TraesCS1D03G0931100,TraesCS2B03G0731200,TraesCS2D03G0347500,TraesCS3A03G0294100,TraesCS3A03G1018500,TraesCS3A03G1018700,TraesCS3B03G0309700,TraesCS3B03G1165300,TraesCS4A03G0657600,TraesCS4B03G0140700,TraesCS4B03G0647100,TraesCS4D03G0118100,TraesCS4D03G0699100,TraesCS5D03G0992800,TraesCS6A03G0329800,TraesCS6B03G0425000,TraesCS6B03G0749500,TraesCS6B03G0808900,TraesCS7A03G0214300,TraesCSU03G0047200,TraesCSU03G0085400</t>
-  </si>
-  <si>
     <t>TraesCS2B03G0731200,TraesCS5A03G0684700,TraesCS5B03G0722200,TraesCS5D03G0654200,TraesCSU03G0047200</t>
   </si>
   <si>
@@ -641,6 +641,33 @@
     <t>Os01g0110200,Os01g0168800,Os01g0249200,Os01g0764000,Os01g0896200,Os03g0283200,Os03g0416200,Os06g0218600,Os07g0636800,Os08g0157500,Os10g0529300</t>
   </si>
   <si>
+    <t>Os01g0284500,Os01g0946700,Os01g0947000,Os03g0155900,Os03g0368000,Os03g0368300,Os03g0428700,Os04g0559700,Os07g0106200,Os07g0193000,Os07g0559700,Os07g0639000,Os10g0417600,Os10g0439100,Os10g0439200,Os10g0555700</t>
+  </si>
+  <si>
+    <t>Os06g0336200</t>
+  </si>
+  <si>
+    <t>Os01g0371500,Os08g0470200,Os10g0529500,Os11g0506800</t>
+  </si>
+  <si>
+    <t>Os01g0119000,Os01g0214800,Os01g0233000,Os01g0284500,Os02g0285300,Os04g0472200,Os04g0559700,Os05g0134700,Os06g0211300,Os06g0254700,Os06g0319133,Os07g0176500,Os07g0193000,Os07g0542900,Os10g0417600,Os10g0555700</t>
+  </si>
+  <si>
+    <t>Os01g0284500,Os03g0146100,Os04g0559700,Os06g0254700,Os06g0336200,Os07g0175600</t>
+  </si>
+  <si>
+    <t>Os01g0214800,Os01g0284500,Os04g0559700</t>
+  </si>
+  <si>
+    <t>Os01g0214800,Os05g0134800,Os05g0382600,Os06g0254700,Os06g0671800,Os09g0482780</t>
+  </si>
+  <si>
+    <t>Os05g0344400</t>
+  </si>
+  <si>
+    <t>Os01g0185900,Os01g0284500,Os01g0371500,Os01g0946700,Os01g0947000,Os03g0233900,Os03g0734100,Os04g0509600,Os04g0559700,Os07g0106200,Os07g0559700,Os08g0364900,Os08g0470200,Os10g0529500,Os10g0555700,Os11g0587600,Os12g0437800</t>
+  </si>
+  <si>
     <t>Os01g0249200,Os05g0277500,Os08g0524400</t>
   </si>
   <si>
@@ -672,33 +699,6 @@
   </si>
   <si>
     <t>Os01g0110200,Os01g0249200,Os01g0896200,Os01g0971400,Os02g0312600,Os02g0742200,Os03g0178400,Os03g0807500,Os04g0410600,Os04g0636400,Os05g0108600,Os05g0277500,Os05g0356700,Os06g0218600,Os06g0234200,Os07g0604400,Os07g0638500,Os08g0524400,Os11g0472600</t>
-  </si>
-  <si>
-    <t>Os01g0284500,Os01g0946700,Os01g0947000,Os03g0155900,Os03g0368000,Os03g0368300,Os03g0428700,Os04g0559700,Os07g0106200,Os07g0193000,Os07g0559700,Os07g0639000,Os10g0417600,Os10g0439100,Os10g0439200,Os10g0555700</t>
-  </si>
-  <si>
-    <t>Os06g0336200</t>
-  </si>
-  <si>
-    <t>Os01g0371500,Os08g0470200,Os10g0529500,Os11g0506800</t>
-  </si>
-  <si>
-    <t>Os01g0119000,Os01g0214800,Os01g0233000,Os01g0284500,Os02g0285300,Os04g0472200,Os04g0559700,Os05g0134700,Os06g0211300,Os06g0254700,Os06g0319133,Os07g0176500,Os07g0193000,Os07g0542900,Os10g0417600,Os10g0555700</t>
-  </si>
-  <si>
-    <t>Os01g0284500,Os03g0146100,Os04g0559700,Os06g0254700,Os06g0336200,Os07g0175600</t>
-  </si>
-  <si>
-    <t>Os01g0214800,Os01g0284500,Os04g0559700</t>
-  </si>
-  <si>
-    <t>Os01g0214800,Os05g0134800,Os05g0382600,Os06g0254700,Os06g0671800,Os09g0482780</t>
-  </si>
-  <si>
-    <t>Os05g0344400</t>
-  </si>
-  <si>
-    <t>Os01g0185900,Os01g0284500,Os01g0371500,Os01g0946700,Os01g0947000,Os03g0233900,Os03g0734100,Os04g0509600,Os04g0559700,Os07g0106200,Os07g0559700,Os08g0364900,Os08g0470200,Os10g0529500,Os10g0555700,Os11g0587600,Os12g0437800</t>
   </si>
   <si>
     <t>Os01g0947000,Os07g0106200,Os08g0524400</t>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1224,13 +1224,13 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>14.81</v>
+        <v>13.7</v>
       </c>
       <c r="E3">
         <v>0.0009</v>
       </c>
       <c r="F3">
-        <v>0.014</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1256,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3.91</v>
+        <v>3.98</v>
       </c>
       <c r="E4">
-        <v>0.099</v>
+        <v>0.081</v>
       </c>
       <c r="F4">
-        <v>0.6222222222222222</v>
+        <v>0.6048</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1421,13 +1421,13 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="E10">
-        <v>0.199</v>
+        <v>0.191</v>
       </c>
       <c r="F10">
-        <v>0.8254814814814815</v>
+        <v>0.84</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1563,10 +1563,10 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="E15">
-        <v>0.08799999999999999</v>
+        <v>0.094</v>
       </c>
       <c r="F15">
         <v>0.6222222222222222</v>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>2.63</v>
+        <v>3.7</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1650,13 +1650,13 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="E18">
-        <v>0.151</v>
+        <v>0.148</v>
       </c>
       <c r="F18">
-        <v>0.8053333333333333</v>
+        <v>0.7893333333333333</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="E19">
-        <v>0.169</v>
+        <v>0.17</v>
       </c>
       <c r="F19">
-        <v>0.8227692307692308</v>
+        <v>0.8278260869565218</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1714,13 +1714,13 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="E20">
-        <v>0.191</v>
+        <v>0.205</v>
       </c>
       <c r="F20">
-        <v>0.8227692307692308</v>
+        <v>0.8503703703703703</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E21">
-        <v>0.677</v>
+        <v>0.671</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1778,13 +1778,13 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="E22">
-        <v>0.169</v>
+        <v>0.17</v>
       </c>
       <c r="F22">
-        <v>0.8227692307692308</v>
+        <v>0.8278260869565218</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1833,13 +1833,13 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>3.36</v>
+        <v>3.29</v>
       </c>
       <c r="E24">
-        <v>0.029</v>
+        <v>0.02</v>
       </c>
       <c r="F24">
-        <v>0.2498461538461539</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1888,13 +1888,13 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="E26">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F26">
-        <v>0.0336</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -1920,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1984,10 +1984,10 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0.979</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2016,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2117,13 +2117,13 @@
         <v>5</v>
       </c>
       <c r="D34">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="E34">
-        <v>0.112</v>
+        <v>0.113</v>
       </c>
       <c r="F34">
-        <v>0.6552</v>
+        <v>0.6328</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0.52</v>
       </c>
       <c r="E35">
-        <v>0.924</v>
+        <v>0.929</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2204,10 +2204,10 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E37">
-        <v>0.796</v>
+        <v>0.775</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2236,10 +2236,10 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="E38">
-        <v>0.357</v>
+        <v>0.32</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2268,13 +2268,13 @@
         <v>19</v>
       </c>
       <c r="D39">
-        <v>3.85</v>
+        <v>3.92</v>
       </c>
       <c r="E39">
         <v>0.0009</v>
       </c>
       <c r="F39">
-        <v>0.014</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -2300,10 +2300,10 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="E40">
-        <v>0.401</v>
+        <v>0.361</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2378,13 +2378,13 @@
         <v>11</v>
       </c>
       <c r="D43">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="E43">
-        <v>0.228</v>
+        <v>0.215</v>
       </c>
       <c r="F43">
-        <v>0.912</v>
+        <v>0.86</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -2407,19 +2407,19 @@
         <v>27</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>0.43</v>
+        <v>2.97</v>
       </c>
       <c r="E44">
-        <v>0.961</v>
+        <v>0.0009</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>59</v>
@@ -2439,10 +2439,10 @@
         <v>27</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2452,6 +2452,15 @@
       </c>
       <c r="G45" t="b">
         <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s">
+        <v>115</v>
+      </c>
+      <c r="J45" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2485,10 +2494,10 @@
         <v>27</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2498,15 +2507,6 @@
       </c>
       <c r="G47" t="b">
         <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-      <c r="I47" t="s">
-        <v>135</v>
-      </c>
-      <c r="J47" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2517,13 +2517,13 @@
         <v>27</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>0.49</v>
+        <v>1.22</v>
       </c>
       <c r="E48">
-        <v>0.9320000000000001</v>
+        <v>0.418</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J48" t="s">
         <v>210</v>
@@ -2549,28 +2549,19 @@
         <v>27</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.955</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-      <c r="I49" t="s">
-        <v>137</v>
-      </c>
-      <c r="J49" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2604,28 +2595,28 @@
         <v>27</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>0.79</v>
+        <v>2.46</v>
       </c>
       <c r="E51">
-        <v>0.831</v>
+        <v>0.0009</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2636,28 +2627,28 @@
         <v>27</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>1.27</v>
+        <v>2.39</v>
       </c>
       <c r="E52">
-        <v>0.412</v>
+        <v>0.022</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.1895384615384615</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2668,28 +2659,28 @@
         <v>27</v>
       </c>
       <c r="C53">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>4.34</v>
+        <v>0.51</v>
       </c>
       <c r="E53">
-        <v>0.0009</v>
+        <v>0.96</v>
       </c>
       <c r="F53">
-        <v>0.014</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2700,13 +2691,13 @@
         <v>27</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="E54">
-        <v>0.665</v>
+        <v>0.593</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2715,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2732,10 +2723,10 @@
         <v>27</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2745,15 +2736,6 @@
       </c>
       <c r="G55" t="b">
         <v>0</v>
-      </c>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-      <c r="I55" t="s">
-        <v>142</v>
-      </c>
-      <c r="J55" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2764,10 +2746,10 @@
         <v>27</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>0.42</v>
+        <v>0.13</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2779,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I56" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2799,25 +2781,25 @@
         <v>15</v>
       </c>
       <c r="D57">
-        <v>1.15</v>
+        <v>1.46</v>
       </c>
       <c r="E57">
-        <v>0.304</v>
+        <v>0.057</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.456</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2828,28 +2810,28 @@
         <v>28</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>2.95</v>
+        <v>0.43</v>
       </c>
       <c r="E58">
-        <v>0.0009</v>
+        <v>0.958</v>
       </c>
       <c r="F58">
-        <v>0.014</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2860,10 +2842,10 @@
         <v>28</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2873,15 +2855,6 @@
       </c>
       <c r="G59" t="b">
         <v>0</v>
-      </c>
-      <c r="H59" t="s">
-        <v>40</v>
-      </c>
-      <c r="I59" t="s">
-        <v>115</v>
-      </c>
-      <c r="J59" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2915,10 +2888,10 @@
         <v>28</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2928,6 +2901,15 @@
       </c>
       <c r="G61" t="b">
         <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>68</v>
+      </c>
+      <c r="I61" t="s">
+        <v>143</v>
+      </c>
+      <c r="J61" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2938,13 +2920,13 @@
         <v>28</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>1.2</v>
+        <v>0.49</v>
       </c>
       <c r="E62">
-        <v>0.438</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2953,13 +2935,13 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2970,19 +2952,28 @@
         <v>28</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0.959</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63" t="s">
+        <v>145</v>
+      </c>
+      <c r="J63" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3016,28 +3007,28 @@
         <v>28</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D65">
-        <v>2.47</v>
+        <v>0.79</v>
       </c>
       <c r="E65">
-        <v>0.0009</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="F65">
-        <v>0.014</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3048,28 +3039,28 @@
         <v>28</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66">
-        <v>2.36</v>
+        <v>1.24</v>
       </c>
       <c r="E66">
-        <v>0.022</v>
+        <v>0.41</v>
       </c>
       <c r="F66">
-        <v>0.2053333333333333</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3080,28 +3071,28 @@
         <v>28</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D67">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="E67">
-        <v>0.958</v>
+        <v>0.0009</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3112,13 +3103,13 @@
         <v>28</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D68">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="E68">
-        <v>0.583</v>
+        <v>0.677</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3127,13 +3118,13 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3144,10 +3135,10 @@
         <v>28</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3157,6 +3148,15 @@
       </c>
       <c r="G69" t="b">
         <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s">
+        <v>150</v>
+      </c>
+      <c r="J69" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3167,13 +3167,13 @@
         <v>28</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>0.14</v>
+        <v>0.42</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3202,13 +3202,13 @@
         <v>15</v>
       </c>
       <c r="D71">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="E71">
-        <v>0.048</v>
+        <v>0.297</v>
       </c>
       <c r="F71">
-        <v>0.384</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>3</v>
       </c>
       <c r="D72">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="E72">
-        <v>0.352</v>
+        <v>0.381</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3312,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0.99</v>
+        <v>1.16</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3344,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3431,10 +3431,10 @@
         <v>2</v>
       </c>
       <c r="D79">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E79">
-        <v>0.876</v>
+        <v>0.901</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3463,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0.58</v>
+        <v>0.68</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3495,10 +3495,10 @@
         <v>3</v>
       </c>
       <c r="D81">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E81">
-        <v>0.6830000000000001</v>
+        <v>0.706</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -3527,10 +3527,10 @@
         <v>3</v>
       </c>
       <c r="D82">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E82">
-        <v>0.707</v>
+        <v>0.733</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3605,13 +3605,13 @@
         <v>20</v>
       </c>
       <c r="D85">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="E85">
         <v>0.0009</v>
       </c>
       <c r="F85">
-        <v>0.014</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
@@ -3637,13 +3637,13 @@
         <v>8</v>
       </c>
       <c r="D86">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="E86">
-        <v>0.117</v>
+        <v>0.111</v>
       </c>
       <c r="F86">
-        <v>0.6552</v>
+        <v>0.6328</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>2</v>
       </c>
       <c r="D89">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="E89">
-        <v>0.673</v>
+        <v>0.656</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -3750,7 +3750,7 @@
         <v>0.45</v>
       </c>
       <c r="E90">
-        <v>0.966</v>
+        <v>0.951</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3811,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3843,13 +3843,13 @@
         <v>29</v>
       </c>
       <c r="D93">
-        <v>3.49</v>
+        <v>3.52</v>
       </c>
       <c r="E93">
         <v>0.0009</v>
       </c>
       <c r="F93">
-        <v>0.014</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -3875,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3910,10 +3910,10 @@
         <v>1.73</v>
       </c>
       <c r="E95">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="F95">
-        <v>0.1934545454545455</v>
+        <v>0.1730909090909091</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>1.45</v>
       </c>
       <c r="E96">
-        <v>0.097</v>
+        <v>0.095</v>
       </c>
       <c r="F96">
         <v>0.6222222222222222</v>
@@ -3994,10 +3994,10 @@
         <v>3</v>
       </c>
       <c r="D98">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="E98">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -4029,7 +4029,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="E99">
-        <v>0.957</v>
+        <v>0.953</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -4058,16 +4058,16 @@
         <v>8</v>
       </c>
       <c r="D100">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="E100">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="F100">
-        <v>0.02488888888888889</v>
+        <v>0.0672</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="s">
         <v>97</v>
@@ -4159,10 +4159,10 @@
         <v>2</v>
       </c>
       <c r="D104">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="E104">
-        <v>0.791</v>
+        <v>0.785</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -4191,10 +4191,10 @@
         <v>2</v>
       </c>
       <c r="D105">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="E105">
-        <v>0.926</v>
+        <v>0.931</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -4246,13 +4246,13 @@
         <v>7</v>
       </c>
       <c r="D107">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="E107">
-        <v>0.184</v>
+        <v>0.195</v>
       </c>
       <c r="F107">
-        <v>0.8227692307692308</v>
+        <v>0.84</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
@@ -4278,13 +4278,13 @@
         <v>7</v>
       </c>
       <c r="D108">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="E108">
-        <v>0.001</v>
+        <v>0.0009</v>
       </c>
       <c r="F108">
-        <v>0.014</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
@@ -4310,10 +4310,10 @@
         <v>4</v>
       </c>
       <c r="D109">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E109">
-        <v>0.76</v>
+        <v>0.769</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -4342,13 +4342,13 @@
         <v>7</v>
       </c>
       <c r="D110">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="E110">
-        <v>0.184</v>
+        <v>0.195</v>
       </c>
       <c r="F110">
-        <v>0.8227692307692308</v>
+        <v>0.84</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
@@ -4374,10 +4374,10 @@
         <v>2</v>
       </c>
       <c r="D111">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E111">
-        <v>0.819</v>
+        <v>0.831</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4538,13 +4538,13 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>8.85</v>
+        <v>10.31</v>
       </c>
       <c r="E3">
-        <v>0.0009</v>
+        <v>0.001</v>
       </c>
       <c r="F3">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -4570,13 +4570,13 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>7.52</v>
+        <v>7.41</v>
       </c>
       <c r="E4">
-        <v>0.016</v>
+        <v>0.024</v>
       </c>
       <c r="F4">
-        <v>0.1629090909090909</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1.56</v>
+        <v>1.11</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4735,10 +4735,10 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E10">
-        <v>0.593</v>
+        <v>0.569</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -4790,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4845,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4877,10 +4877,10 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="E15">
-        <v>0.594</v>
+        <v>0.604</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -4932,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4964,13 +4964,13 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>2.8</v>
+        <v>2.97</v>
       </c>
       <c r="E18">
-        <v>0.147</v>
+        <v>0.134</v>
       </c>
       <c r="F18">
-        <v>0.7483636363636363</v>
+        <v>0.7146666666666667</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -4999,7 +4999,7 @@
         <v>1.9</v>
       </c>
       <c r="E19">
-        <v>0.274</v>
+        <v>0.278</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -5028,10 +5028,10 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="E20">
-        <v>0.68</v>
+        <v>0.627</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -5060,10 +5060,10 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E21">
-        <v>0.641</v>
+        <v>0.662</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -5092,13 +5092,13 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>3.66</v>
+        <v>3.57</v>
       </c>
       <c r="E22">
-        <v>0.073</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="F22">
-        <v>0.4303157894736842</v>
+        <v>0.5128421052631579</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="E24">
-        <v>0.671</v>
+        <v>0.721</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5202,10 +5202,10 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E26">
-        <v>0.5620000000000001</v>
+        <v>0.549</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -5234,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5431,7 +5431,7 @@
         <v>5</v>
       </c>
       <c r="D34">
-        <v>4.86</v>
+        <v>5.07</v>
       </c>
       <c r="E34">
         <v>0.002</v>
@@ -5463,13 +5463,13 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>3.53</v>
+        <v>3.12</v>
       </c>
       <c r="E35">
-        <v>0.105</v>
+        <v>0.129</v>
       </c>
       <c r="F35">
-        <v>0.588</v>
+        <v>0.7146666666666667</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -5518,10 +5518,10 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="E37">
-        <v>0.374</v>
+        <v>0.378</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -5550,13 +5550,13 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="E38">
-        <v>0.16</v>
+        <v>0.168</v>
       </c>
       <c r="F38">
-        <v>0.7791304347826088</v>
+        <v>0.8446666666666667</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -5582,13 +5582,13 @@
         <v>19</v>
       </c>
       <c r="D39">
-        <v>5.04</v>
+        <v>4.89</v>
       </c>
       <c r="E39">
         <v>0.0009</v>
       </c>
       <c r="F39">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -5614,13 +5614,13 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>2.39</v>
+        <v>2.36</v>
       </c>
       <c r="E40">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="F40">
-        <v>0.203</v>
+        <v>0.2464</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -5692,16 +5692,16 @@
         <v>11</v>
       </c>
       <c r="D43">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="E43">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="F43">
-        <v>0.014</v>
+        <v>0.0784</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="s">
         <v>58</v>
@@ -5721,19 +5721,19 @@
         <v>27</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>0.54</v>
+        <v>2.3</v>
       </c>
       <c r="E44">
-        <v>0.922</v>
+        <v>0.0009</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.016</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>59</v>
@@ -5753,10 +5753,10 @@
         <v>27</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -5766,6 +5766,15 @@
       </c>
       <c r="G45" t="b">
         <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s">
+        <v>209</v>
+      </c>
+      <c r="J45" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -5799,10 +5808,10 @@
         <v>27</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -5812,15 +5821,6 @@
       </c>
       <c r="G47" t="b">
         <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-      <c r="I47" t="s">
-        <v>209</v>
-      </c>
-      <c r="J47" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -5831,13 +5831,13 @@
         <v>27</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>0.87</v>
+        <v>1.39</v>
       </c>
       <c r="E48">
-        <v>0.738</v>
+        <v>0.295</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -5846,13 +5846,13 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I48" t="s">
         <v>210</v>
       </c>
       <c r="J48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -5863,28 +5863,19 @@
         <v>27</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.133</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>0.7093333333333334</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-      <c r="I49" t="s">
-        <v>211</v>
-      </c>
-      <c r="J49" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -5918,28 +5909,28 @@
         <v>27</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>0.8100000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="E51">
-        <v>0.797</v>
+        <v>0.033</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.2464</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -5950,28 +5941,28 @@
         <v>27</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="E52">
-        <v>0.388</v>
+        <v>0.181</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.8446666666666667</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -5982,28 +5973,28 @@
         <v>27</v>
       </c>
       <c r="C53">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>3.71</v>
+        <v>0.25</v>
       </c>
       <c r="E53">
-        <v>0.0009</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0.014</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -6014,13 +6005,13 @@
         <v>27</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>1.22</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E54">
-        <v>0.348</v>
+        <v>0.799</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -6029,13 +6020,13 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -6046,10 +6037,10 @@
         <v>27</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -6059,15 +6050,6 @@
       </c>
       <c r="G55" t="b">
         <v>0</v>
-      </c>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-      <c r="I55" t="s">
-        <v>216</v>
-      </c>
-      <c r="J55" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -6078,28 +6060,28 @@
         <v>27</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>3.22</v>
+        <v>0.66</v>
       </c>
       <c r="E56">
-        <v>0.027</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0.203</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J56" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -6113,25 +6095,25 @@
         <v>15</v>
       </c>
       <c r="D57">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="E57">
-        <v>0.07099999999999999</v>
+        <v>0.378</v>
       </c>
       <c r="F57">
-        <v>0.4303157894736842</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -6142,28 +6124,28 @@
         <v>28</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>2.3</v>
+        <v>0.54</v>
       </c>
       <c r="E58">
-        <v>0.003</v>
+        <v>0.926</v>
       </c>
       <c r="F58">
-        <v>0.0336</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -6174,10 +6156,10 @@
         <v>28</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -6187,15 +6169,6 @@
       </c>
       <c r="G59" t="b">
         <v>0</v>
-      </c>
-      <c r="H59" t="s">
-        <v>40</v>
-      </c>
-      <c r="I59" t="s">
-        <v>220</v>
-      </c>
-      <c r="J59" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -6229,10 +6202,10 @@
         <v>28</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -6242,6 +6215,15 @@
       </c>
       <c r="G61" t="b">
         <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>68</v>
+      </c>
+      <c r="I61" t="s">
+        <v>218</v>
+      </c>
+      <c r="J61" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -6252,13 +6234,13 @@
         <v>28</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>1.36</v>
+        <v>0.89</v>
       </c>
       <c r="E62">
-        <v>0.331</v>
+        <v>0.73</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -6267,13 +6249,13 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -6284,19 +6266,28 @@
         <v>28</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0.179</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.8446666666666667</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63" t="s">
+        <v>220</v>
+      </c>
+      <c r="J63" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -6330,28 +6321,28 @@
         <v>28</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D65">
-        <v>1.57</v>
+        <v>0.83</v>
       </c>
       <c r="E65">
-        <v>0.026</v>
+        <v>0.769</v>
       </c>
       <c r="F65">
-        <v>0.203</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -6362,28 +6353,28 @@
         <v>28</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="E66">
-        <v>0.168</v>
+        <v>0.403</v>
       </c>
       <c r="F66">
-        <v>0.7840000000000001</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -6394,28 +6385,28 @@
         <v>28</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D67">
-        <v>0.26</v>
+        <v>3.6</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0.0009</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.016</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -6426,13 +6417,13 @@
         <v>28</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D68">
-        <v>0.8100000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="E68">
-        <v>0.796</v>
+        <v>0.32</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -6441,13 +6432,13 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -6458,10 +6449,10 @@
         <v>28</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -6471,6 +6462,15 @@
       </c>
       <c r="G69" t="b">
         <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s">
+        <v>225</v>
+      </c>
+      <c r="J69" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -6481,16 +6481,16 @@
         <v>28</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>0.61</v>
+        <v>3.24</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0.025</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
@@ -6516,13 +6516,13 @@
         <v>15</v>
       </c>
       <c r="D71">
-        <v>1.11</v>
+        <v>1.43</v>
       </c>
       <c r="E71">
-        <v>0.368</v>
+        <v>0.073</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.4542222222222221</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -6548,10 +6548,10 @@
         <v>3</v>
       </c>
       <c r="D72">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="E72">
-        <v>0.735</v>
+        <v>0.716</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -6626,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>1.37</v>
+        <v>1.79</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -6658,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -6690,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -6745,7 +6745,7 @@
         <v>2</v>
       </c>
       <c r="D79">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -6777,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -6809,7 +6809,7 @@
         <v>3</v>
       </c>
       <c r="D81">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -6844,7 +6844,7 @@
         <v>0.54</v>
       </c>
       <c r="E82">
-        <v>0.9350000000000001</v>
+        <v>0.962</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -6919,13 +6919,13 @@
         <v>20</v>
       </c>
       <c r="D85">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="E85">
-        <v>0.001</v>
+        <v>0.0009</v>
       </c>
       <c r="F85">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
@@ -6951,7 +6951,7 @@
         <v>8</v>
       </c>
       <c r="D86">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E86">
         <v>0.359</v>
@@ -7029,10 +7029,10 @@
         <v>2</v>
       </c>
       <c r="D89">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="E89">
-        <v>0.458</v>
+        <v>0.49</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -7064,7 +7064,7 @@
         <v>0.47</v>
       </c>
       <c r="E90">
-        <v>0.984</v>
+        <v>0.978</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -7093,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -7157,13 +7157,13 @@
         <v>29</v>
       </c>
       <c r="D93">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="E93">
         <v>0.0009</v>
       </c>
       <c r="F93">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -7221,10 +7221,10 @@
         <v>14</v>
       </c>
       <c r="D95">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E95">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -7253,10 +7253,10 @@
         <v>12</v>
       </c>
       <c r="D96">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="E96">
-        <v>0.358</v>
+        <v>0.361</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -7308,10 +7308,10 @@
         <v>3</v>
       </c>
       <c r="D98">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="E98">
-        <v>0.484</v>
+        <v>0.459</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -7340,7 +7340,7 @@
         <v>10</v>
       </c>
       <c r="D99">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -7372,13 +7372,13 @@
         <v>8</v>
       </c>
       <c r="D100">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="E100">
         <v>0.001</v>
       </c>
       <c r="F100">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
@@ -7473,10 +7473,10 @@
         <v>2</v>
       </c>
       <c r="D104">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="E104">
-        <v>0.492</v>
+        <v>0.443</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -7505,13 +7505,13 @@
         <v>2</v>
       </c>
       <c r="D105">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="E105">
-        <v>0.212</v>
+        <v>0.264</v>
       </c>
       <c r="F105">
-        <v>0.9132307692307692</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
@@ -7560,13 +7560,13 @@
         <v>7</v>
       </c>
       <c r="D107">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="E107">
-        <v>0.176</v>
+        <v>0.196</v>
       </c>
       <c r="F107">
-        <v>0.78848</v>
+        <v>0.87808</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
@@ -7592,13 +7592,13 @@
         <v>7</v>
       </c>
       <c r="D108">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="E108">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F108">
-        <v>0.014</v>
+        <v>0.02488888888888889</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
@@ -7624,10 +7624,10 @@
         <v>4</v>
       </c>
       <c r="D109">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="E109">
-        <v>0.859</v>
+        <v>0.874</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -7656,13 +7656,13 @@
         <v>7</v>
       </c>
       <c r="D110">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="E110">
-        <v>0.07000000000000001</v>
+        <v>0.063</v>
       </c>
       <c r="F110">
-        <v>0.4303157894736842</v>
+        <v>0.4150588235294118</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
@@ -7688,13 +7688,13 @@
         <v>2</v>
       </c>
       <c r="D111">
-        <v>6.25</v>
+        <v>6.51</v>
       </c>
       <c r="E111">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="F111">
-        <v>0.203</v>
+        <v>0.2464</v>
       </c>
       <c r="G111" t="b">
         <v>0</v>
@@ -7743,13 +7743,13 @@
         <v>12</v>
       </c>
       <c r="D113">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="E113">
-        <v>0.029</v>
+        <v>0.037</v>
       </c>
       <c r="F113">
-        <v>0.203</v>
+        <v>0.259</v>
       </c>
       <c r="G113" t="b">
         <v>0</v>
